--- a/DPI_Table_Audit/MstInstituteRegistration_20-09-2024.xlsx
+++ b/DPI_Table_Audit/MstInstituteRegistration_20-09-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e\Git_Repository_16_05-2022\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26BF0F09-604D-4492-BE87-89104A2C05D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87485B-268F-4E60-A240-FFAB6FA435C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFA4B2CD-1BD2-4FFE-A7CD-600732C0079E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFA4B2CD-1BD2-4FFE-A7CD-600732C0079E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
